--- a/doc/source_to_target.xlsx
+++ b/doc/source_to_target.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Integração" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Source to Target (erp &gt; staging" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Source to Target (staging &gt; war" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="ST (ERP &gt; Staging)" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="ST (Staging &gt; Warehouse)" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="ST (Warehouse &gt; Mart Maintenanc" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="101">
   <si>
     <t xml:space="preserve">Processo de Negócio</t>
   </si>
@@ -90,7 +91,7 @@
     <t xml:space="preserve">Data Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
+    <t xml:space="preserve">Comentários</t>
   </si>
   <si>
     <t xml:space="preserve">Source System</t>
@@ -237,7 +238,7 @@
     <t xml:space="preserve">Target (Data Warehouse)</t>
   </si>
   <si>
-    <t xml:space="preserve">Obs</t>
+    <t xml:space="preserve">Source (Staging)</t>
   </si>
   <si>
     <t xml:space="preserve">dim_machines</t>
@@ -255,7 +256,7 @@
     <t xml:space="preserve">Query result</t>
   </si>
   <si>
-    <t xml:space="preserve">machine_type_id</t>
+    <t xml:space="preserve">machine_code</t>
   </si>
   <si>
     <t xml:space="preserve">purchase_date</t>
@@ -289,6 +290,42 @@
   </si>
   <si>
     <t xml:space="preserve">fact_maintenances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim_incidents, stg_maintenances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downtime_hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target (Data Mart: Maintenance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source (Warehouse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mart_astarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmm_dim_machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmm_dim_incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenances, incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmm_fact_maintenances</t>
   </si>
 </sst>
 </file>
@@ -298,11 +335,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -318,6 +356,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -416,57 +461,105 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -502,7 +595,7 @@
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -655,71 +748,71 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.81"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="6" customFormat="true" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -743,773 +836,773 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="11" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="H20" s="11" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1536,603 +1629,1331 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="F4" s="20"/>
+      <c r="H4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="H5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="A6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="F6" s="20"/>
+      <c r="H6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="F7" s="20"/>
+      <c r="H7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="F8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="H9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="F10" s="20"/>
+      <c r="H10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="F11" s="20"/>
+      <c r="H11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="F12" s="20"/>
+      <c r="H12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="F13" s="20"/>
+      <c r="H13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="11" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="H17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="H18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="H20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="H22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="H23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="H24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="H25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF2A6099"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="A15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>31</v>
-      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="A17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>58</v>
+      <c r="A18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="0" t="s">
-        <v>60</v>
-      </c>
+      <c r="K19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>31</v>
-      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>63</v>
-      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>65</v>
-      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
